--- a/src/kraken_files/excel_files/KSMUSD.xlsx
+++ b/src/kraken_files/excel_files/KSMUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,116 +475,93 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.49168</v>
+        <v>11.4270208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.125</v>
+        <v>0.3125</v>
       </c>
       <c r="D2" t="n">
-        <v>413.671456848</v>
+        <v>391.83800268288</v>
       </c>
       <c r="E2" t="n">
-        <v>422.912276124</v>
+        <v>407.37513940344</v>
       </c>
       <c r="F2" t="n">
-        <v>427.1413988852399</v>
+        <v>411.4488907974743</v>
       </c>
       <c r="G2" t="n">
-        <v>3.153508901828295</v>
+        <v>4.766299910684991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4270208</v>
+        <v>19.12615245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3125</v>
+        <v>0.78125</v>
       </c>
       <c r="D3" t="n">
-        <v>391.83800268288</v>
+        <v>357.777814176445</v>
       </c>
       <c r="E3" t="n">
-        <v>407.37513940344</v>
+        <v>382.5764767899425</v>
       </c>
       <c r="F3" t="n">
-        <v>411.4488907974743</v>
+        <v>386.4022415578419</v>
       </c>
       <c r="G3" t="n">
-        <v>4.766299910684991</v>
+        <v>7.407935126357712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>19.12615245</v>
+        <v>31.13679782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.78125</v>
+        <v>1.953125</v>
       </c>
       <c r="D4" t="n">
-        <v>357.777814176445</v>
+        <v>304.643920124102</v>
       </c>
       <c r="E4" t="n">
-        <v>382.5764767899425</v>
+        <v>343.6101984570222</v>
       </c>
       <c r="F4" t="n">
-        <v>386.4022415578419</v>
+        <v>347.0463004415925</v>
       </c>
       <c r="G4" t="n">
-        <v>7.407935126357712</v>
+        <v>12.21807587735018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>31.13679782</v>
+        <v>49.8734046</v>
       </c>
       <c r="C5" t="n">
-        <v>1.953125</v>
+        <v>4.8828125</v>
       </c>
       <c r="D5" t="n">
-        <v>304.643920124102</v>
+        <v>221.75504539006</v>
       </c>
       <c r="E5" t="n">
-        <v>343.6101984570222</v>
+        <v>282.6826219235411</v>
       </c>
       <c r="F5" t="n">
-        <v>347.0463004415925</v>
+        <v>285.5094481427765</v>
       </c>
       <c r="G5" t="n">
-        <v>12.21807587735018</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>49.8734046</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.8828125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>221.75504539006</v>
-      </c>
-      <c r="E6" t="n">
-        <v>282.6826219235411</v>
-      </c>
-      <c r="F6" t="n">
-        <v>285.5094481427765</v>
-      </c>
-      <c r="G6" t="n">
         <v>22.33005007975583</v>
       </c>
     </row>
@@ -622,21 +599,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OAHU2C-JNHRP-E64UM6</t>
+          <t>OI2L6D-NFVCS-DOFQNQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>441</v>
+        <v>436.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OI2L6D-NFVCS-DOFQNQ</t>
+          <t>OURURI-VBKLS-Y3UZBP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>436.47</v>
+        <v>427.14</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,6 +649,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OMI6QP-UNTCP-NYQQNO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
